--- a/log.xlsx
+++ b/log.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -1855,7 +1855,336 @@
           <t>Diffondi la vivacità nel tuo spazio di lavoro! Risparmia CHF20 aggiungendo almeno 2 prodotti al carrello. ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌ ͏ ‌</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sat, 26 Jul 2025 21:34:23 +0200</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano &lt;azienda.agricola.pezzuoli@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Fwd: Notifica Servizio monitoraggio Fatture elettroniche CIA</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Gentile cliente, la presente per segnalarle che sono state gestite per suo conto le seguenti movimentazioni con il sistema di interscambio: - Fattura ricevuta n. 1252186599 del 19-JUL-25 fornitore EOLO</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>archive\198483ae30940a8a</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sat, 26 Jul 2025 20:39:56 +0200</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano &lt;azienda.agricola.pezzuoli@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Fwd: Notifica Servizio monitoraggio Fatture elettroniche CIA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Ciao Grazie e buona giornata. Centrella Massimo cell. +39 348 4515847 meno carta... più alberi: se non è proprio necessario non stampare questa mail, grazie. ---------- Forwarded message --------- Da:</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>archive\1984809089b35451</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Fri, 18 Jul 2025 11:21:57 +0200</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano &lt;azienda.agricola.pezzuoli@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Re: Concessione Agrisolare</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Buongiorno Alessandro, probabilmente ti è arrivata una richiesta anche da parte della Cinzia Andreoli di Fiorano. Avevamo verificato che la fattura riportava i codici: AGRS1000006952 e CUP</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>archive\1981cd752b546da4</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Wed, 16 Jul 2025 12:17:02 +0200</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano &lt;azienda.agricola.pezzuoli@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Fwd: Modifica atto costitutivo.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Centrella Massimo cell. +39 348 4515847 meno carta... più alberi: se non è proprio necessario non stampare questa mail, grazie. ---------- Forwarded message --------- Da: Cinzia Andreoli &amp;lt;c.andreoli</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>archive\19812bd08824d381</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Mon, 14 Jul 2025 15:24:04 +0200</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano &lt;azienda.agricola.pezzuoli@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Re: Concessione Agrisolare</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Mi dici anche cosa bisogna fare con la fattura dell&amp;#39;associazione di Roma? Grazie e buona giornata. Centrella Massimo cell. +39 348 4515847 meno carta... più alberi: se non è proprio necessario non</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>archive\198091b8a93b5880</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Fri, 4 Jul 2025 15:52:40 +0200</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano &lt;azienda.agricola.pezzuoli@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Fwd: Corsi formazione obbligatoria per il benessere animale</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Grazie e buona giornata. Centrella Massimo cell. +39 348 4515847 meno carta... più alberi: se non è proprio necessario non stampare questa mail, grazie. ---------- Forwarded message --------- Da:</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>nota REGIONE formazione_allevatori_ER (1).pdf, ALLEGATO_2_-_PROGRAMMI_DEI_CORSI (1).pdf</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>archive\197d5b625ef96d80</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Fri, 13 Jun 2025 16:55:10 +0200</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano &lt;azienda.agricola.pezzuoli@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Re: CM25024 Az. Agr. Pezzuoli - consegne</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Buon pomeriggio, le canale potranno essere stoccate insieme all&amp;#39;altro materiale. Non sono sicuro della presenza di nostro personale libero in quanto alle prese con altre attività, comunque mi</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>archive\19769c9cb6990cc1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Fri, 30 May 2025 09:49:21 +0200</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano &lt;azienda.agricola.pezzuoli@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Re: CM25024 Az. Agr. Pezzuoli - consegne</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Buongiorno Sara, informo i ragazzi in azienda per predisporsi martedì mattina. Siccome chi utilizza il Manitou è impegnato in questo periodo con il fieno, avrei necessità di sapere gli orari per lo</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>archive\197202c2a679cfdd</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Tue, 27 May 2025 15:35:53 +0200</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano &lt;azienda.agricola.pezzuoli@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Re: CM25024 Az. Agr. Pezzuoli - consegne</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Mi sono informato, mi hanno detto che in azienda agricola non ci sono muletti o carrelli elevatori, ma abbiamo un Manitou tipo quello in foto (senza la ralla) che viene usato di solito per caricare\</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>archive\19711f515edf731b</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Tue, 27 May 2025 11:20:35 +0200</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano &lt;azienda.agricola.pezzuoli@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Re: CM25024 Az. Agr. Pezzuoli - consegne</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Buongiorno Sara, ti ringrazio per l&amp;#39;informazione. Mi interfaccio con il personale in azienda per organizzare uno spazio dove immagazzinare il materiale in attesa del montaggio. Non sono sicuro</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>archive\197110b5a862e691</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Thu, 06 Feb 2025 18:19:20 +0000</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano &lt;azienda.agricola.pezzuoli@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano ha condiviso un calendario con te</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ciaom.centrella@gmail.com, Ti informiamo che Azienda Agricola Pezzuoli Gianfranco e Geminiano &amp;lt;azienda.agricola.pezzuoli@gmail.com&amp;gt; ti ha concesso l&amp;#39;accesso per modificare eventi sul al</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>archive\194dc7ce73ab30f7</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Tue, 14 Jan 2025 11:53:26 +0100</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Pezzuoli Gianfranco e Geminiano &lt;azienda.agricola.pezzuoli@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>oggetto</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ciao</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>archive\1946472968d5eeeb</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
